--- a/PM Docs/PM Tasks.xlsx
+++ b/PM Docs/PM Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\FinanceManager\PM Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B3ED07-5017-4736-8447-6BAE42D88FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5128170-5DED-4441-8BF2-236723EFC1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="20832" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4332" yWindow="912" windowWidth="17676" windowHeight="13356" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Task</t>
   </si>
   <si>
     <t>Project Planning</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>UI/UX design</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Sketch, then Wireframe/Prototype</t>
   </si>
 </sst>
 </file>
@@ -66,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -83,6 +96,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE9835D8-AE74-4691-8225-AD619E4375F3}" name="Table1" displayName="Table1" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{EE9835D8-AE74-4691-8225-AD619E4375F3}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6A855A2E-EF0C-48CB-BB05-6DBF8C6EAF4D}" name="Task"/>
+    <tableColumn id="2" xr3:uid="{82847973-21BC-42E8-87AE-F59557102093}" name="Status"/>
+    <tableColumn id="3" xr3:uid="{AD9E4B97-6DAE-4538-B69D-00C00EAFF5E5}" name="Comments"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,28 +373,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>